--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhack/git/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3A56BF-8E22-5042-8CF8-BC1E6A3E7230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE20BD17-C772-5B4C-A1D3-EBA9BC5DE3D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="402">
   <si>
     <t>First Name</t>
   </si>
@@ -1217,6 +1217,15 @@
   </si>
   <si>
     <t>Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Race Unknown</t>
+  </si>
+  <si>
+    <t>Race Other</t>
+  </si>
+  <si>
+    <t>Race Refused to Answer</t>
   </si>
 </sst>
 </file>
@@ -1569,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CU12"/>
+  <dimension ref="A1:CX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="CH11" sqref="CH11"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CM1" workbookViewId="0">
+      <selection activeCell="CY9" sqref="CY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1673,10 +1682,15 @@
     <col min="94" max="94" width="16" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="12" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="16" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1974,8 +1988,17 @@
       <c r="CU1" t="s">
         <v>398</v>
       </c>
+      <c r="CV1" t="s">
+        <v>400</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>399</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>401</v>
+      </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2259,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -2543,7 +2566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2821,7 +2844,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3054,7 +3077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3305,7 +3328,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3562,7 +3585,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -3822,7 +3845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -4101,7 +4124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -4379,7 +4402,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -4633,7 +4656,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>297</v>
       </c>
